--- a/src/users.xlsx
+++ b/src/users.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,27 +34,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>桂林电子科技大学花江校区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lanlifu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>llf1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wjl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>aa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桂林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南宁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -68,12 +68,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -96,19 +97,32 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -404,13 +418,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -428,36 +448,50 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>111111</v>
+      <c r="D2" s="3">
+        <v>18076757556</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>18076757558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>222222</v>
+      <c r="B4" s="4">
+        <v>1234</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>12345678900</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -471,6 +505,7 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -484,5 +519,6 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/users.xlsx
+++ b/src/users.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,23 +46,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wjl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>aa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,21 +93,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -123,16 +106,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -206,7 +184,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -241,7 +218,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -417,22 +393,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" customWidth="1"/>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,21 +422,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1234</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>18076757556</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -470,22 +446,8 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>18076757558</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1234</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3">
-        <v>12345678900</v>
       </c>
     </row>
   </sheetData>
@@ -496,12 +458,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -510,12 +472,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
